--- a/biology/Biologie cellulaire et moléculaire/Remodelage_de_la_chromatine/Remodelage_de_la_chromatine.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Remodelage_de_la_chromatine/Remodelage_de_la_chromatine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le remodelage de la chromatine est l'un des trois mécanismes de modification de la structure de la chromatine. Intervenant d'abord au cours de l'étape de maturation de la chromatine, il permet l'obtention d'un certain état final de sa structure. 
 Plusieurs protéines sont impliquées dans ce processus de remodelage (familles SW1/SNF, ISW1, INO, CHD). Ces protéines, appelées facteurs de remodelage de la chromatine, forment des complexes multi-protéiques et utilisent l'énergie libérée par l'hydrolyse de l'ATP pour induire des changements conformationnels au niveau du nucléosome et des domaines de la chromatine. 
